--- a/Bill of Materials/Word-Clock-BOM.xlsx
+++ b/Bill of Materials/Word-Clock-BOM.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Word-Clock" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="285">
   <si>
     <t>Part</t>
   </si>
@@ -811,9 +811,6 @@
   </si>
   <si>
     <t>http://www.ikea.com/aa/en/catalog/products/70221913/</t>
-  </si>
-  <si>
-    <t>http://www.bannerbuzz.com.au/</t>
   </si>
   <si>
     <t>Acrylic Dividers</t>
@@ -1253,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -1267,7 +1264,9 @@
     <col min="6" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="10.83203125" style="7"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1284,23 +1283,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>259</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1320,17 +1319,17 @@
         <v>0.02</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2">
         <f>IF(G2="No",E2*(1+H2),E2)</f>
         <v>0.02</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1350,14 +1349,14 @@
         <v>0.01</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="0">IF(G3="No",E3*(1+H3),E3)</f>
         <v>0.01</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1377,14 +1376,14 @@
         <v>0.02</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1404,14 +1403,14 @@
         <v>0.01</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1431,14 +1430,14 @@
         <v>0.02</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1458,14 +1457,14 @@
         <v>0.01</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1485,14 +1484,14 @@
         <v>0.01</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1512,14 +1511,14 @@
         <v>0.01</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1539,14 +1538,14 @@
         <v>0.01</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1566,14 +1565,14 @@
         <v>0.02</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1593,14 +1592,14 @@
         <v>0.01</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1620,14 +1619,14 @@
         <v>0.02</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1647,14 +1646,14 @@
         <v>0.01</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1674,14 +1673,14 @@
         <v>0.01</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1701,14 +1700,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1728,14 +1727,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1752,14 +1751,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1776,14 +1775,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1803,14 +1802,14 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1830,14 +1829,14 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1854,14 +1853,14 @@
         <v>0.08</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1881,17 +1880,17 @@
         <v>0.18</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1911,14 +1910,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1938,7 +1937,7 @@
         <v>11.13</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>0.1</v>
@@ -1948,7 +1947,7 @@
         <v>12.243000000000002</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1968,7 +1967,7 @@
         <v>2.46</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>0.1</v>
@@ -1978,10 +1977,10 @@
         <v>2.706</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1998,17 +1997,17 @@
         <v>0.92</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2028,17 +2027,17 @@
         <v>1.59</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2055,17 +2054,17 @@
         <v>0.92</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2082,17 +2081,17 @@
         <v>0.02</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2109,17 +2108,17 @@
         <v>0.02</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2136,17 +2135,17 @@
         <v>0.02</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2171,7 +2170,7 @@
         <v>0.26669999999999999</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -5418,7 +5417,7 @@
         <v>0.24</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I181" s="2">
         <f t="shared" si="6"/>
@@ -5589,7 +5588,7 @@
         <v>0.24</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I189" s="2">
         <f t="shared" si="8"/>
@@ -5634,7 +5633,7 @@
         <v>0.24</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I191" s="2">
         <f t="shared" si="8"/>
@@ -5679,7 +5678,7 @@
         <v>0.24</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I193" s="2">
         <f t="shared" si="8"/>
@@ -5789,8 +5788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5832,32 +5831,29 @@
         <v>256</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
